--- a/biology/Botanique/Pommes_de_terre_à_la_lyonnaise/Pommes_de_terre_à_la_lyonnaise.xlsx
+++ b/biology/Botanique/Pommes_de_terre_à_la_lyonnaise/Pommes_de_terre_à_la_lyonnaise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pommes_de_terre_%C3%A0_la_lyonnaise</t>
+          <t>Pommes_de_terre_à_la_lyonnaise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pommes de terre à la lyonnaise, ou pommes lyonnaise, sont un plat  de la cuisine française à base de pommes de terre et nommé par référence à Lyon.
 Il s'agit de pommes de terre taillées en tranches et sautées à la poêle avec du beurre, auxquelles on ajoute de l'oignon émincé et doré au beurre et du persil haché. Les pommes de terre peuvent être sautées à cru, ou bien préalablement cuites entières à l'eau.
-L'expression « pommes de terre à la lyonnaise » est attestée, au moins depuis 1806, dans Le Cuisinier impérial d’André Viard[1].
-Une préparation « à la lyonnaise » se caractérise par la présence d'une garniture à base d'oignons émincés[2].
+L'expression « pommes de terre à la lyonnaise » est attestée, au moins depuis 1806, dans Le Cuisinier impérial d’André Viard.
+Une préparation « à la lyonnaise » se caractérise par la présence d'une garniture à base d'oignons émincés.
 </t>
         </is>
       </c>
